--- a/NEW HR/ROQUITE, MARIECAR.xlsx
+++ b/NEW HR/ROQUITE, MARIECAR.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48721DF-E6B4-40DB-81D1-D468F2C6202E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -309,11 +308,14 @@
   <si>
     <t>2/17,20/2023</t>
   </si>
+  <si>
+    <t>3/19,20/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1245,7 +1247,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1290,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1354,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1414,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1478,7 +1480,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1541,7 +1543,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1639,7 +1641,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1698,7 +1700,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1763,7 +1765,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1806,7 +1808,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1881,7 +1883,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2069,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2133,7 +2135,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2191,7 +2193,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2257,7 +2259,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2313,7 +2315,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2388,7 +2390,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2431,7 +2433,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2499,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2553,7 +2555,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2649,25 +2651,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2679,25 +2681,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3004,7 +3006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3014,7 +3016,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3022,34 +3024,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A71" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="K79" sqref="K79"/>
+      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3070,7 +3072,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3088,7 +3090,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3110,7 +3112,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3118,7 +3120,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3131,7 +3133,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -3148,7 +3150,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3183,7 +3185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3192,7 +3194,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>53.5</v>
+        <v>54.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3202,12 +3204,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>64.5</v>
+        <v>62.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -3229,7 +3231,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3249,7 +3251,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3269,7 +3271,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3289,7 +3291,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3309,7 +3311,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3329,7 +3331,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3349,7 +3351,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3369,7 +3371,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3389,7 +3391,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3409,7 +3411,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3429,7 +3431,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3449,7 +3451,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3473,7 +3475,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>46</v>
       </c>
@@ -3491,7 +3493,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3511,7 +3513,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3531,7 +3533,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3551,7 +3553,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3571,7 +3573,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3591,7 +3593,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3611,7 +3613,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3631,7 +3633,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3651,7 +3653,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -3671,7 +3673,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -3691,7 +3693,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -3711,7 +3713,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -3735,7 +3737,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>47</v>
       </c>
@@ -3753,7 +3755,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -3773,7 +3775,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -3793,7 +3795,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -3813,7 +3815,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -3833,7 +3835,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -3853,7 +3855,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -3879,7 +3881,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -3899,7 +3901,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -3919,7 +3921,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -3945,7 +3947,7 @@
         <v>44086</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>44111</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -3991,7 +3993,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4015,7 +4017,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>56</v>
@@ -4035,7 +4037,7 @@
         <v>44193</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="48" t="s">
         <v>48</v>
       </c>
@@ -4053,7 +4055,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44197</v>
       </c>
@@ -4073,7 +4075,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44228</v>
       </c>
@@ -4093,7 +4095,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44256</v>
       </c>
@@ -4113,7 +4115,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44287</v>
       </c>
@@ -4133,7 +4135,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44317</v>
       </c>
@@ -4153,7 +4155,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44348</v>
       </c>
@@ -4177,7 +4179,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44378</v>
       </c>
@@ -4197,7 +4199,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44409</v>
       </c>
@@ -4217,7 +4219,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44440</v>
       </c>
@@ -4237,7 +4239,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44470</v>
       </c>
@@ -4257,7 +4259,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44501</v>
       </c>
@@ -4277,7 +4279,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44531</v>
       </c>
@@ -4301,7 +4303,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="48" t="s">
         <v>49</v>
       </c>
@@ -4319,7 +4321,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44562</v>
       </c>
@@ -4345,7 +4347,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44593</v>
       </c>
@@ -4365,7 +4367,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44621</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44652</v>
       </c>
@@ -4417,7 +4419,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44682</v>
       </c>
@@ -4437,7 +4439,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44713</v>
       </c>
@@ -4457,7 +4459,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44743</v>
       </c>
@@ -4477,7 +4479,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44774</v>
       </c>
@@ -4497,7 +4499,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44805</v>
       </c>
@@ -4517,7 +4519,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44835</v>
       </c>
@@ -4543,7 +4545,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44866</v>
       </c>
@@ -4563,7 +4565,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44896</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="48" t="s">
         <v>88</v>
       </c>
@@ -4607,7 +4609,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44927</v>
       </c>
@@ -4627,7 +4629,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44958</v>
       </c>
@@ -4653,29 +4655,39 @@
         <v>89</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44986</v>
       </c>
-      <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="B79" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H79" s="39"/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H79" s="39">
+        <v>2</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K79" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45017</v>
       </c>
-      <c r="B80" s="20"/>
+      <c r="B80" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
@@ -4684,12 +4696,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H80" s="39"/>
+      <c r="H80" s="39">
+        <v>1</v>
+      </c>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="20"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="49">
+        <v>45019</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45047</v>
       </c>
@@ -4707,7 +4723,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45078</v>
       </c>
@@ -4725,7 +4741,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45108</v>
       </c>
@@ -4743,7 +4759,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>45139</v>
       </c>
@@ -4761,7 +4777,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45170</v>
       </c>
@@ -4779,7 +4795,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>45200</v>
       </c>
@@ -4797,7 +4813,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45231</v>
       </c>
@@ -4815,7 +4831,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45261</v>
       </c>
@@ -4833,7 +4849,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>45292</v>
       </c>
@@ -4851,7 +4867,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>45323</v>
       </c>
@@ -4869,7 +4885,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>45352</v>
       </c>
@@ -4887,7 +4903,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>45383</v>
       </c>
@@ -4905,7 +4921,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>45413</v>
       </c>
@@ -4923,7 +4939,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>45444</v>
       </c>
@@ -4941,7 +4957,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>45474</v>
       </c>
@@ -4959,7 +4975,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>45505</v>
       </c>
@@ -4977,7 +4993,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>45536</v>
       </c>
@@ -4995,7 +5011,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>45566</v>
       </c>
@@ -5013,7 +5029,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>45597</v>
       </c>
@@ -5031,7 +5047,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>45627</v>
       </c>
@@ -5049,7 +5065,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>45658</v>
       </c>
@@ -5067,7 +5083,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5083,7 +5099,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5099,7 +5115,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5115,7 +5131,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5131,7 +5147,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5147,7 +5163,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5163,7 +5179,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5179,7 +5195,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5195,7 +5211,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5211,7 +5227,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5227,7 +5243,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5243,7 +5259,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5259,7 +5275,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5275,7 +5291,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5291,7 +5307,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5307,7 +5323,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5323,7 +5339,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5339,7 +5355,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5355,7 +5371,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5371,7 +5387,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5387,7 +5403,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5403,7 +5419,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5419,7 +5435,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5435,7 +5451,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5451,7 +5467,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5467,7 +5483,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5483,7 +5499,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5499,7 +5515,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5515,7 +5531,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5531,7 +5547,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5547,7 +5563,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5563,7 +5579,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5579,7 +5595,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5595,7 +5611,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5611,7 +5627,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -5642,10 +5658,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5668,34 +5684,34 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A45" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A45" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
       <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -5716,7 +5732,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5734,7 +5750,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5756,7 +5772,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5764,7 +5780,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5777,7 +5793,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -5794,7 +5810,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -5829,7 +5845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -5853,7 +5869,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -5875,7 +5891,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -5899,7 +5915,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>51</v>
@@ -5921,7 +5937,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -5945,7 +5961,7 @@
         <v>43136</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>54</v>
@@ -5967,7 +5983,7 @@
         <v>43154</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -5991,7 +6007,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="15" t="s">
         <v>54</v>
@@ -6013,7 +6029,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>56</v>
@@ -6033,7 +6049,7 @@
         <v>43182</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43191</v>
       </c>
@@ -6057,7 +6073,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>51</v>
@@ -6079,7 +6095,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>58</v>
@@ -6101,7 +6117,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>56</v>
@@ -6121,7 +6137,7 @@
         <v>43220</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43221</v>
       </c>
@@ -6145,7 +6161,7 @@
         <v>43238</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48"/>
       <c r="B23" s="20" t="s">
         <v>51</v>
@@ -6167,7 +6183,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43252</v>
       </c>
@@ -6189,7 +6205,7 @@
         <v>43280</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>54</v>
@@ -6211,7 +6227,7 @@
         <v>43276</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43282</v>
       </c>
@@ -6235,7 +6251,7 @@
         <v>43286</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43313</v>
       </c>
@@ -6259,7 +6275,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43344</v>
       </c>
@@ -6283,7 +6299,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>66</v>
@@ -6305,7 +6321,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43374</v>
       </c>
@@ -6329,7 +6345,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43405</v>
       </c>
@@ -6353,7 +6369,7 @@
         <v>43413</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>54</v>
@@ -6375,7 +6391,7 @@
         <v>43415</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43435</v>
       </c>
@@ -6399,7 +6415,7 @@
         <v>43462</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>51</v>
@@ -6421,7 +6437,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>54</v>
@@ -6443,7 +6459,7 @@
         <v>43457</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>46</v>
       </c>
@@ -6461,7 +6477,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43466</v>
       </c>
@@ -6485,7 +6501,7 @@
         <v>43128</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43497</v>
       </c>
@@ -6509,7 +6525,7 @@
         <v>43521</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43556</v>
       </c>
@@ -6533,7 +6549,7 @@
         <v>43575</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43586</v>
       </c>
@@ -6557,7 +6573,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>54</v>
@@ -6579,7 +6595,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>54</v>
@@ -6601,7 +6617,7 @@
         <v>43613</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43617</v>
       </c>
@@ -6623,7 +6639,7 @@
         <v>43619</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>70</v>
@@ -6645,7 +6661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43647</v>
       </c>
@@ -6669,7 +6685,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>54</v>
@@ -6691,7 +6707,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43678</v>
       </c>
@@ -6715,7 +6731,7 @@
         <v>43687</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>72</v>
@@ -6737,7 +6753,7 @@
         <v>43695</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>43709</v>
       </c>
@@ -6761,7 +6777,7 @@
         <v>43711</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>72</v>
@@ -6783,7 +6799,7 @@
         <v>43715</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43739</v>
       </c>
@@ -6807,7 +6823,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>43770</v>
       </c>
@@ -6831,7 +6847,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>72</v>
@@ -6853,7 +6869,7 @@
         <v>43777</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43800</v>
       </c>
@@ -6877,7 +6893,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="48" t="s">
         <v>47</v>
       </c>
@@ -6895,7 +6911,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>11324</v>
       </c>
@@ -6917,7 +6933,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>77</v>
@@ -6937,7 +6953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>77</v>
@@ -6957,7 +6973,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43862</v>
       </c>
@@ -6981,7 +6997,7 @@
         <v>43872</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43891</v>
       </c>
@@ -7005,7 +7021,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7021,7 +7037,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7037,7 +7053,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7053,7 +7069,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7069,7 +7085,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7085,7 +7101,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7101,7 +7117,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7117,7 +7133,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7133,7 +7149,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7149,7 +7165,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7165,7 +7181,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7181,7 +7197,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7197,7 +7213,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7213,7 +7229,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7229,7 +7245,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7245,7 +7261,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7261,7 +7277,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7277,7 +7293,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7293,7 +7309,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7309,7 +7325,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7325,7 +7341,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7341,7 +7357,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7357,7 +7373,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7373,7 +7389,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7389,7 +7405,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7405,7 +7421,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7421,7 +7437,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7437,7 +7453,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7453,7 +7469,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7469,7 +7485,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7485,7 +7501,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7501,7 +7517,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7517,7 +7533,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7533,7 +7549,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7549,7 +7565,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7565,7 +7581,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7581,7 +7597,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7597,7 +7613,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7613,7 +7629,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7629,7 +7645,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7645,7 +7661,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7661,7 +7677,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7677,7 +7693,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7693,7 +7709,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7709,7 +7725,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7725,7 +7741,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7741,7 +7757,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7757,7 +7773,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7773,7 +7789,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7789,7 +7805,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7805,7 +7821,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7821,7 +7837,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7837,7 +7853,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7853,7 +7869,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7869,7 +7885,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7885,7 +7901,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7901,7 +7917,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7917,7 +7933,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7933,7 +7949,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7949,7 +7965,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7965,7 +7981,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7981,7 +7997,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7997,7 +8013,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8013,7 +8029,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8029,7 +8045,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8045,7 +8061,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8061,7 +8077,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8077,7 +8093,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8093,7 +8109,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8109,7 +8125,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -8125,7 +8141,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -8141,7 +8157,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -8157,7 +8173,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -8173,7 +8189,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -8204,10 +8220,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8230,28 +8246,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -8264,7 +8280,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8293,7 +8309,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>28.25</v>
       </c>
@@ -8317,17 +8333,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8348,7 +8364,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8375,7 +8391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8401,7 +8417,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8427,7 +8443,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8453,7 +8469,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8479,7 +8495,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8505,7 +8521,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8531,7 +8547,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8557,7 +8573,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8577,7 +8593,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8597,7 +8613,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8617,7 +8633,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8638,7 +8654,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8659,7 +8675,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8680,7 +8696,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8701,7 +8717,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8722,7 +8738,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8743,7 +8759,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8764,7 +8780,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8785,7 +8801,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8806,7 +8822,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8827,7 +8843,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8848,7 +8864,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8869,7 +8885,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8890,7 +8906,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8911,7 +8927,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8932,7 +8948,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8953,7 +8969,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8974,7 +8990,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8995,7 +9011,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9016,7 +9032,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9037,7 +9053,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9046,7 +9062,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9055,7 +9071,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9064,7 +9080,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9073,7 +9089,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9082,7 +9098,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9091,7 +9107,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9100,7 +9116,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9109,7 +9125,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9118,7 +9134,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9127,7 +9143,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9136,7 +9152,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9145,7 +9161,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9154,7 +9170,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9163,7 +9179,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9172,7 +9188,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9181,7 +9197,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9190,7 +9206,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9199,7 +9215,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9208,7 +9224,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9217,7 +9233,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9226,7 +9242,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9235,7 +9251,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9244,7 +9260,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9253,7 +9269,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9262,7 +9278,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9271,7 +9287,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9280,7 +9296,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9289,7 +9305,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9298,7 +9314,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/ROQUITE, MARIECAR.xlsx
+++ b/NEW HR/ROQUITE, MARIECAR.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1247,7 +1247,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1290,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1354,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1414,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1480,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1543,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1641,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1700,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1765,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1808,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1883,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2069,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2135,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2193,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2259,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2315,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2390,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2433,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2499,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +2555,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2651,7 +2651,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3028,12 +3028,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="H81" sqref="H81"/>
+      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3204,7 +3204,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>62.75</v>
+        <v>61.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4706,10 +4706,10 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B81" s="20"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
@@ -4718,14 +4718,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H81" s="39"/>
+      <c r="H81" s="39">
+        <v>1</v>
+      </c>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="49">
+        <v>45036</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -4743,7 +4747,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -4761,7 +4765,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4779,7 +4783,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4797,7 +4801,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4815,7 +4819,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4833,7 +4837,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4851,7 +4855,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4869,7 +4873,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4887,7 +4891,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4905,7 +4909,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4923,7 +4927,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4941,7 +4945,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4959,7 +4963,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4977,7 +4981,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4995,7 +4999,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5013,7 +5017,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5031,7 +5035,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5049,7 +5053,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5067,7 +5071,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5084,7 +5088,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45658</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -5628,20 +5634,36 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8207,17 +8229,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/ROQUITE, MARIECAR.xlsx
+++ b/NEW HR/ROQUITE, MARIECAR.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>3/19,20/2023</t>
+  </si>
+  <si>
+    <t>5/4,5/2023</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1250,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1293,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1357,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1414,7 +1417,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1483,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1543,7 +1546,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1644,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1700,7 +1703,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,7 +1768,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1811,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,7 +1886,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2072,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2135,7 +2138,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2196,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,7 +2262,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2318,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2390,7 +2393,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2433,7 +2436,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2502,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,7 +2558,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3033,7 +3036,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="B82" sqref="B82"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,7 +3197,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>54.75</v>
+        <v>56</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3204,7 +3207,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>61.75</v>
+        <v>61</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4688,13 +4691,15 @@
       <c r="B80" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39">
         <v>1</v>
@@ -4731,7 +4736,9 @@
       <c r="A82" s="40">
         <v>45047</v>
       </c>
-      <c r="B82" s="20"/>
+      <c r="B82" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
@@ -4740,10 +4747,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>2</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
@@ -5715,7 +5726,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A45" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8229,17 +8240,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/ROQUITE, MARIECAR.xlsx
+++ b/NEW HR/ROQUITE, MARIECAR.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1250,7 +1250,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1293,7 +1293,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1357,7 +1357,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1417,7 +1417,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1483,7 +1483,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1546,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1644,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1703,7 +1703,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1768,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1811,7 +1811,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1886,7 +1886,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2072,7 +2072,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2138,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2196,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2262,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2318,7 +2318,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2393,7 +2393,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2436,7 +2436,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2502,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2558,7 +2558,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2654,7 +2654,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K138" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3031,12 +3031,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K137"/>
+  <dimension ref="A2:K138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3207,7 +3207,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4757,10 +4757,10 @@
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B83" s="20"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
@@ -4769,14 +4769,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="39"/>
+      <c r="H83" s="39">
+        <v>1</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="49">
+        <v>45075</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -4794,7 +4798,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -4812,7 +4816,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -4830,7 +4834,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -4848,7 +4852,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4866,7 +4870,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4884,7 +4888,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4902,7 +4906,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4920,7 +4924,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4938,7 +4942,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4956,7 +4960,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4974,7 +4978,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4992,7 +4996,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5010,7 +5014,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5028,7 +5032,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5046,7 +5050,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5064,7 +5068,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5082,7 +5086,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5100,7 +5104,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5117,7 +5121,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45658</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -5661,20 +5667,36 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="41"/>
-      <c r="B137" s="15"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="43"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H137" s="43"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
       <c r="I137" s="9"/>
-      <c r="J137" s="12"/>
-      <c r="K137" s="15"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+      <c r="B138" s="15"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="43"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="43"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="12"/>
+      <c r="K138" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8240,17 +8262,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">

--- a/NEW HR/ROQUITE, MARIECAR.xlsx
+++ b/NEW HR/ROQUITE, MARIECAR.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3036,7 +3036,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A71" activePane="bottomLeft"/>
       <selection activeCell="D75" sqref="D75"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <selection pane="bottomLeft" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3197,7 +3197,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])</f>
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3207,7 +3207,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4739,13 +4739,15 @@
       <c r="B82" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39">
         <v>2</v>
@@ -4783,13 +4785,15 @@
         <v>45078</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4801,13 +4805,15 @@
         <v>45108</v>
       </c>
       <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4818,25 +4824,35 @@
       <c r="A86" s="40">
         <v>45139</v>
       </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="B86" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="39"/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="49">
+        <v>45147</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>45170</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
@@ -4845,10 +4861,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H87" s="39"/>
+      <c r="H87" s="39">
+        <v>1</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="49">
+        <v>45175</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
